--- a/SolarBattery/in.xlsx
+++ b/SolarBattery/in.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD5F854-E678-40C0-B8DD-2AB1649330A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -129,7 +130,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -206,6 +207,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -253,7 +257,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -286,9 +290,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -321,6 +342,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -496,21 +534,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:W46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D31" sqref="D31:W32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="4.6328125" customWidth="1"/>
-    <col min="3" max="3" width="6.6328125" customWidth="1"/>
-    <col min="4" max="23" width="5.08984375" customWidth="1"/>
+    <col min="2" max="2" width="4.625" customWidth="1"/>
+    <col min="3" max="3" width="6.625" customWidth="1"/>
+    <col min="4" max="23" width="5.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:23" x14ac:dyDescent="0.15">
       <c r="C2" t="s">
         <v>14</v>
       </c>
@@ -524,7 +562,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:23" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -532,13 +570,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:23" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:23" x14ac:dyDescent="0.15">
       <c r="D6">
         <v>1</v>
       </c>
@@ -600,7 +638,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:23" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -625,7 +663,7 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
     </row>
-    <row r="8" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:23" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
         <v>22</v>
       </c>
@@ -650,17 +688,17 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:23" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:23" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:23" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -668,13 +706,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:23" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:23" x14ac:dyDescent="0.15">
       <c r="D14">
         <v>1</v>
       </c>
@@ -736,7 +774,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:23" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -761,7 +799,7 @@
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
     </row>
-    <row r="16" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:23" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
         <v>22</v>
       </c>
@@ -786,17 +824,17 @@
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
     </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:23" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:23" x14ac:dyDescent="0.15">
       <c r="C20" t="s">
         <v>6</v>
       </c>
@@ -804,13 +842,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.15">
       <c r="C21" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.15">
       <c r="D22">
         <v>1</v>
       </c>
@@ -872,7 +910,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.15">
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -897,7 +935,7 @@
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.15">
       <c r="C24" t="s">
         <v>22</v>
       </c>
@@ -922,17 +960,17 @@
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.15">
       <c r="C25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:23" x14ac:dyDescent="0.15">
       <c r="C26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.15">
       <c r="C28" t="s">
         <v>7</v>
       </c>
@@ -940,13 +978,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:23" x14ac:dyDescent="0.15">
       <c r="C29" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.15">
       <c r="D30">
         <v>1</v>
       </c>
@@ -1008,7 +1046,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:23" x14ac:dyDescent="0.15">
       <c r="C31" t="s">
         <v>15</v>
       </c>
@@ -1033,7 +1071,7 @@
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
     </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:23" x14ac:dyDescent="0.15">
       <c r="C32" t="s">
         <v>22</v>
       </c>
@@ -1058,17 +1096,17 @@
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C33" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C34" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D36" t="s">
         <v>9</v>
       </c>
@@ -1082,22 +1120,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C38" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C39" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D41" t="s">
         <v>9</v>
       </c>
@@ -1111,22 +1149,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C42" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C43" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C44" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C46" t="s">
         <v>24</v>
       </c>
@@ -1139,12 +1177,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1152,12 +1190,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
